--- a/NetworkResources.xlsx
+++ b/NetworkResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blueb\Documents\KITReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDD23C3-21E8-4F3D-B361-41C01C6C3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E872F4-9863-47A6-BFF7-8BB7FC46F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="2235" windowWidth="38700" windowHeight="15345" xr2:uid="{C4AA49A3-C9A8-4306-AF95-F32CF4F375E4}"/>
+    <workbookView xWindow="7380" yWindow="3000" windowWidth="38700" windowHeight="15345" xr2:uid="{C4AA49A3-C9A8-4306-AF95-F32CF4F375E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>CVPR Network Manager</t>
   </si>
@@ -53,9 +53,6 @@
     <t>202.31.200.173</t>
   </si>
   <si>
-    <t>202.31.200.188</t>
-  </si>
-  <si>
     <t>Servers</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>NewJay</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
     <t>Server 1</t>
   </si>
   <si>
@@ -89,12 +80,6 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>jay-2.4G</t>
-  </si>
-  <si>
-    <t>jay-5G</t>
-  </si>
-  <si>
     <t>jay5G</t>
   </si>
   <si>
@@ -126,13 +111,34 @@
   </si>
   <si>
     <t xml:space="preserve"> Details</t>
+  </si>
+  <si>
+    <t>d136D137!000</t>
+  </si>
+  <si>
+    <t>newjay-2.4G</t>
+  </si>
+  <si>
+    <t>newjay-5G</t>
+  </si>
+  <si>
+    <t>Netgear RAX20</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Not Reachable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +160,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +188,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,11 +208,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,21 +222,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,190 +557,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0F7CCD-54FD-45B5-9CD3-36F66ED9A9D2}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="27.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1">
+        <v>13022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4">
-        <v>11022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4">
-        <v>13022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="12">
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C2:K2"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
